--- a/biology/Médecine/Medicina_Plinii/Medicina_Plinii.xlsx
+++ b/biology/Médecine/Medicina_Plinii/Medicina_Plinii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Medicina Plinii (en latin La Médecine de Pline) ou Breviarium Plinii (L'Abrégé de Pline) sont les noms usuels d'une compilation médicale latine de l'Antiquité tardive, organisée en trois livres, donnant 1 153 recettes de médicaments ou descriptions de traitements tirées dans leur grande majorité de l'Histoire naturelle de Pline l'Ancien (dans les livres XX à XXXII). Les manuscrits l'attribuent à un « Plinius Secundus Junior » qui n'est sûrement pas Pline le Jeune. Elle est citée par Marcellus Empiricus (début du Ve siècle), qui lui emprunte environ 400 recettes, et donc date au plus tard du IVe siècle.
 Dans la préface, l'auteur se présente comme un homme qui n'est pas un médecin de profession mais qui voyage beaucoup et doit se garder des charlatans trop nombreux dont on peut être victime dans cette situation (« Frequenter mihi in peregrinationibus accidit ut propter meam aut propter meorum infirmitatem varias fraudes medicorum experiscerer ») ; il a donc voulu rassembler « de partout » des remèdes pour faire face à tous les syndromes possibles (« Quapropter necessarium mihi visum est ut undique valetudinis auxilia contraherem et velut breviario colligerem ») ; en fait, il a essentiellement puisé dans l'Histoire naturelle de Pline. Ensuite, dans les livres I et II, les remèdes proposés sont organisés, selon l'usage, dans l'ordre des parties du corps affectées, « a capite ad calcem » (« de la tête aux pieds »), c'est-à-dire des maux de tête aux cors de pied. Le livre III est consacré à ce qui affecte l'ensemble du corps (fièvres, maladies de peau, empoisonnements) ou n'importe quelle partie (morsures d'animaux). Les recettes sont en général simples et peu précises (sans indication des quantités des ingrédients). Certaines (près du quart) relèvent clairement de la magie.
@@ -515,7 +527,9 @@
           <t>Éditions modernes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Valentin Rose (éd.), Plinii Secundi quæ fertur una cum Gargili Martialis Medicina, Leipzig, Teubner, 1875.
 Alf Önnerfors (éd.), Plinii Secundi Iunioris qui feruntur de medicina libri tres, Berlin, Akademie-Verlag, 1964.
